--- a/data/trans_dic/P19F$mañana-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19F$mañana-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3899508577430174</v>
+        <v>0.3835061328643021</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3867169616228188</v>
+        <v>0.382699323041008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4072621287670876</v>
+        <v>0.4044266908347582</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5208596150026659</v>
+        <v>0.5188945682954202</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5266115950574046</v>
+        <v>0.5343942195389956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5043574781562072</v>
+        <v>0.4998437494182758</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3776203923530412</v>
+        <v>0.3717597646390032</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3619644791225144</v>
+        <v>0.3637719704696224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3862387228953236</v>
+        <v>0.3876512146388768</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4872669937033463</v>
+        <v>0.4901951491419197</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4846174415968447</v>
+        <v>0.4804665298861122</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4651265631466721</v>
+        <v>0.4694874839777244</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3214618216225667</v>
+        <v>0.3216241974672241</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3956015112531982</v>
+        <v>0.3908943902318352</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3739592710183532</v>
+        <v>0.3718605609024825</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4258901396208341</v>
+        <v>0.43183067846746</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5030074744742415</v>
+        <v>0.4982244777686092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4474827596221507</v>
+        <v>0.4471536474460484</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3213993342304716</v>
+        <v>0.3260139713885503</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4317364547642467</v>
+        <v>0.4346058872843696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3973626137192926</v>
+        <v>0.3980397934278718</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4392334295062497</v>
+        <v>0.4365525169005784</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5458176732043747</v>
+        <v>0.5470781927873795</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4771438244594318</v>
+        <v>0.4745141508771272</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3713116086684116</v>
+        <v>0.3714952480698339</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4277451571825441</v>
+        <v>0.4267999413016781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4228673962959446</v>
+        <v>0.4200211509457285</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5052026720594769</v>
+        <v>0.4997085236988426</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5566210317551431</v>
+        <v>0.5605771531687255</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5125460101679972</v>
+        <v>0.516280749662011</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3038224406632825</v>
+        <v>0.3081167224498298</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4030244959977584</v>
+        <v>0.399587662008025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3733777267677706</v>
+        <v>0.3738245141717494</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.453033973293995</v>
+        <v>0.4515897634306293</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.54560330760637</v>
+        <v>0.5492539954076626</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4825091935402976</v>
+        <v>0.4751309519968896</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3473298853321117</v>
+        <v>0.3458584626455847</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2640493522615773</v>
+        <v>0.2634682521270659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3102090821083044</v>
+        <v>0.3125127669535432</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.504783667971941</v>
+        <v>0.4970877834685141</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4127383034626323</v>
+        <v>0.4141141179861661</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4283536737647236</v>
+        <v>0.4293751281640623</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3855349886891102</v>
+        <v>0.3853216319728627</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4249159802387004</v>
+        <v>0.4257020485064478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4129149843315915</v>
+        <v>0.4124085013228516</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4347903891678025</v>
+        <v>0.4324384805207487</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.474251832940727</v>
+        <v>0.4752311125760187</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4457652931124786</v>
+        <v>0.4456171745550681</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>89327</v>
+        <v>87851</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>68939</v>
+        <v>68223</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>165895</v>
+        <v>164740</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>119315</v>
+        <v>118865</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>93878</v>
+        <v>95265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>205445</v>
+        <v>203607</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>123948</v>
+        <v>122024</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>98380</v>
+        <v>98871</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>231754</v>
+        <v>232602</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>159938</v>
+        <v>160899</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>131716</v>
+        <v>130588</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>279089</v>
+        <v>281706</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>111734</v>
+        <v>111791</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>128922</v>
+        <v>127388</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>251850</v>
+        <v>250437</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>148032</v>
+        <v>150097</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>163925</v>
+        <v>162366</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>301366</v>
+        <v>301145</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>109119</v>
+        <v>110686</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>142918</v>
+        <v>143868</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>266448</v>
+        <v>266902</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>149125</v>
+        <v>148215</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>180682</v>
+        <v>181099</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>319945</v>
+        <v>318182</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87382</v>
+        <v>87425</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>112418</v>
+        <v>112170</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>210651</v>
+        <v>209234</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>118891</v>
+        <v>117598</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>146289</v>
+        <v>147329</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>255325</v>
+        <v>257185</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>52742</v>
+        <v>53488</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>74481</v>
+        <v>73845</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>133819</v>
+        <v>133979</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>78645</v>
+        <v>78394</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>100830</v>
+        <v>101504</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>172931</v>
+        <v>170287</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>43576</v>
+        <v>43391</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>49625</v>
+        <v>49516</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>97219</v>
+        <v>97941</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>63330</v>
+        <v>62364</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>77569</v>
+        <v>77828</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>134245</v>
+        <v>134565</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>685786</v>
+        <v>685406</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>740432</v>
+        <v>741802</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1454010</v>
+        <v>1452226</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>773401</v>
+        <v>769217</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>826402</v>
+        <v>828108</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1569686</v>
+        <v>1569165</v>
       </c>
     </row>
     <row r="36">
